--- a/03.crawler/03.eBay/file/5.collate/crawler_2.xlsx
+++ b/03.crawler/03.eBay/file/5.collate/crawler_2.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>eBay Market</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EUR 18,39</t>
+          <t>EUR 20,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18.261 verkauft</t>
+          <t>18.399 verkauft</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "18.261 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "18.399 verkauft"}</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>391525907146</t>
+          <t>390952552830</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG VORNE RECHTS FÜR VW POLO 9N 6R TRANSPORTER BUS T5</t>
+          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -863,7 +863,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/391525907146?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/390952552830?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -893,10 +893,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.947 verkauft</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>6.813 verkauft</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Neu: Neuer, unbenutzter und unbeschädigter Artikel in der ungeöffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war ursprünglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikhülle. Weitere Einzelheiten im Angebot des Verkäufers.</t>
@@ -909,7 +913,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4052093185177</t>
+          <t>4052093347551</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -917,8 +921,16 @@
           <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Schwarz</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Zentralverriegelung</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>JA</t>
@@ -926,29 +938,37 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Q1-Part</t>
+          <t>Q1-PART</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>31713445</t>
+          <t>31471414</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>31713445</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
+          <t>30609245</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Türschloss</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>Q1-PART</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Kunststoff</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ZENTRALVERRIEGELUNG ZV, 3B1837016BP, 3B1837016CB, 3B1837016S, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>3B1837016A, 6X1837014A, 6X1837014H, 3B1837016AC, 3B1837016AD, 3B1837016CA, 3BD837016, 3BD837016B, 6X1837014C, 3B1837016C, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -958,7 +978,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>NEIN</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -983,23 +1003,27 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>NEIN</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr"/>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/lBQAAOSw56Vj7K~3/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/JLkAAOSwY6tj7K~3/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/AscAAOSwkFBj7K~3/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/tIEAAOSwklBj7K~3/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/z-gAAOSw~wlj7K~3/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/DtkAAOSw3OZj7LG0/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/e2gAAOSwgDFj7LG0/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/iGMAAOSwMtZj7LG0/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/wS8AAOSwWx5j7LG1/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/Yt0AAOSwPHFj7LG1/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/bUUAAOSwlsZj7LG1/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907146?t=1727866106000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/390952552830?t=1727875683000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.947 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "6.813 verkauft"}</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1009,12 +1033,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "ZENTRALVERRIEGELUNG ZV, 3B1837016BP, 3B1837016CB, 3B1837016S, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4052093185177"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31713445"}, "14": {"ITEM": "31713445"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Anzahl der Teile": "1"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"OE/OEM Referenznummer(n)": "3B1837016A, 6X1837014A, 6X1837014H, 3B1837016AC, 3B1837016AD, 3B1837016CA, 3BD837016, 3BD837016B, 6X1837014C, 3B1837016C, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"EAN": "4052093347551"}, "5": {"Material": "Kunststoff"}, "6": {"Oldtimer-Teil": "Nein"}, "7": {"Tuning- &amp; Styling-Teil": "Nein"}, "8": {"Universelle Kompatibilit\u00e4t": "Nein"}, "9": {"Hersteller": "Q1-PART"}, "10": {"Farbe": "Schwarz"}, "11": {"Teilesegment": "Serie &amp; Original"}, "12": {"Im Lieferumfang enthalten": "T\u00fcrschloss"}, "13": {"Produktart": "T\u00fcrschloss"}, "14": {"Fernbedienung": "Zentralverriegelung"}, "15": {"Produktgruppe": "Schlie\u00dfanlage"}, "16": {"Produkttyp": "T\u00fcrschloss"}, "17": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "18": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "19": {"Herstellernummer": "31471414"}, "20": {"ITEM": "30609245"}, "21": {"Gew\u00e4hrleistung": "JA"}, "22": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "391525907146", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 15, "market_place_id": "EBAY-DE", "item_id": "390952552830", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1024,23 +1048,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>390952552830</t>
+          <t>302355976898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
+          <t>TÜRSCHLOSS TÜRSCHLOß SCHLIEßZYLINDE&lt;wbr/&gt;R VORNE LINKS FÜR VW BORA GOLF 4 1J BIS BJ 01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EUR 18,39</t>
+          <t>EUR 12,69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/390952552830?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/302355976898?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1050,7 +1074,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>### INKL. SCHLÜSSEL ###</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1065,19 +1089,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mehr als 10 verfügbar</t>
+          <t>Begrenzte Stückzahl verfügbar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.749 verkauft</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>880 verkauft</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>Neu: Neuer, unbenutzter und unbeschädigter Artikel in der ungeöffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war ursprünglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikhülle. Weitere Einzelheiten im Angebot des Verkäufers.</t>
@@ -1090,24 +1110,16 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4052093347551</t>
+          <t>4052093328475</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Schwarz</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Zentralverriegelung</t>
-        </is>
-      </c>
+          <t>Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
           <t>JA</t>
@@ -1115,62 +1127,54 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>Q1-Part</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>32062040</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>32062040</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>Q1-PART</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>31471414</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>30609245</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>+ SCHLÜSSEL, 1J0837167, 1U0837167A, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßANLAGE, SCHLIEß ZYLINDER, SCHLIESSZYLINDER, ZÜNDSCHLOSS, TÜR SCHLOSS TÜRSCHLOSS TÜRSCHLOß SCHLIEßZYLINDER, ZÜNDSCHLOß, mit und inkl +</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Türschloss</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Q1-PART</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Kunststoff</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>3B1837016A, 6X1837014A, 6X1837014H, 3B1837016AC, 3B1837016AD, 3B1837016CA, 3BD837016, 3BD837016B, 6X1837014C, 3B1837016C, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>NEU</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Türschloss</t>
-        </is>
-      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Schließanlage</t>
+          <t>Schliessanlage</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Türschloss</t>
+          <t>Schließzylinder</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1180,27 +1184,23 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/DtkAAOSw3OZj7LG0/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/e2gAAOSwgDFj7LG0/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/iGMAAOSwMtZj7LG0/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/wS8AAOSwWx5j7LG1/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/Yt0AAOSwPHFj7LG1/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/bUUAAOSwlsZj7LG1/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/uWQAAOSwTWVj7MHh/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/-LoAAOSwlfFj7MHg/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/aOIAAOSwxjlj7MHg/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/rM4AAOSwqGBj7MHh/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/p3YAAOSwez9j7MHh/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/390952552830?t=1727875683000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/302355976898?t=1727366949000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "6.749 verkauft"}</t>
+          <t>{"0": "Begrenzte St\u00fcckzahl verf\u00fcgbar", "1": "880 verkauft"}</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Anzahl der Teile": "1"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"OE/OEM Referenznummer(n)": "3B1837016A, 6X1837014A, 6X1837014H, 3B1837016AC, 3B1837016AD, 3B1837016CA, 3BD837016, 3BD837016B, 6X1837014C, 3B1837016C, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"EAN": "4052093347551"}, "5": {"Material": "Kunststoff"}, "6": {"Oldtimer-Teil": "Nein"}, "7": {"Tuning- &amp; Styling-Teil": "Nein"}, "8": {"Universelle Kompatibilit\u00e4t": "Nein"}, "9": {"Hersteller": "Q1-PART"}, "10": {"Farbe": "Schwarz"}, "11": {"Teilesegment": "Serie &amp; Original"}, "12": {"Im Lieferumfang enthalten": "T\u00fcrschloss"}, "13": {"Produktart": "T\u00fcrschloss"}, "14": {"Fernbedienung": "Zentralverriegelung"}, "15": {"Produktgruppe": "Schlie\u00dfanlage"}, "16": {"Produkttyp": "T\u00fcrschloss"}, "17": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "18": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "19": {"Herstellernummer": "31471414"}, "20": {"ITEM": "30609245"}, "21": {"Gew\u00e4hrleistung": "JA"}, "22": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "+ SCHL\u00dcSSEL, 1J0837167, 1U0837167A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfANLAGE, SCHLIE\u00df ZYLINDER, SCHLIESSZYLINDER, Z\u00dcNDSCHLOSS, T\u00dcR SCHLOSS T\u00dcRSCHLOSS T\u00dcRSCHLO\u00df SCHLIE\u00dfZYLINDER, Z\u00dcNDSCHLO\u00df, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4052093328475"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "Schlie\u00dfzylinder"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "32062040"}, "14": {"ITEM": "32062040"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>{"page": 15, "market_place_id": "EBAY-DE", "item_id": "390952552830", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "302355976898", "seller_name": "atp-autoteile", "category_id": "33648.50459", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1225,23 +1225,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301791991081</t>
+          <t>373222887187</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW BORA 1J GOLF 4 PASSAT 3B 3BG BJ 96-01</t>
+          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT ALTEA 5P SKODA OCTAVIA 2 VW GOLF 5 6 TOURAN 1T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EUR 24,80</t>
+          <t>EUR 22,29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/301791991081?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/373222887187?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.018 verkauft</t>
+          <t>1.610 verkauft</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4058635080283</t>
+          <t>4052093210930</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
+          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Q1-Part</t>
+          <t>Q1-PART</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>31783225</t>
+          <t>31477703</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>31783225</t>
+          <t>31593596</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>NEIN</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Schließanlage</t>
+          <t>Schliessanlage</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Türschloss</t>
+          <t>TÜRSCHLOSS</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1361,23 +1361,23 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>NEIN</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/KC8AAOSwxzZj7MFT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/ZukAAOSwNv9j7MFT/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/cEsAAOSwxa1j7MFT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/FVUAAOSwANNj7MFT/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/0fQAAOSwD3Jj7MFS/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/1J4AAOSwwLVj7MFT/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/jXUAAOSwOxJj7LR9/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/hVkAAOSwIJRj7LR9/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/Xg4AAOSw2RJj7LR9/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/OhAAAOSwmbxj7LR9/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301791991081?t=1727876157000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/373222887187?t=1727866617000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.018 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.610 verkauft"}</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058635080283"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31783225"}, "14": {"ITEM": "31783225"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093210930"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "T\u00dcRSCHLOSS"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31477703"}, "14": {"ITEM": "31593596"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>{"page": 12, "market_place_id": "EBAY-DE", "item_id": "301791991081", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "373222887187", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1402,23 +1402,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>373222887187</t>
+          <t>301873142210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT ALTEA 5P SKODA OCTAVIA 2 VW GOLF 5 6 TOURAN 1T</t>
+          <t>TÜRSCHLOSS VORNE LINKS PASSEND FÜR VW MULTIVAN BUS T5 POLO 9N</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EUR 22,29</t>
+          <t>EUR 28,90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/373222887187?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/301873142210?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.575 verkauft</t>
+          <t>3.293 verkauft</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -1464,12 +1464,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4052093210930</t>
+          <t>4052093165773</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
+          <t>Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Q1-PART</t>
+          <t>Q1-Part</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>31477703</t>
+          <t>31474011</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>31593596</t>
+          <t>31700797</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>3B1837015AQ, 3B1837015AM, 3B1837015N, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, HECKKLAPPE, mit und inkl +</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Nein</t>
+          <t>NEIN</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Schliessanlage</t>
+          <t>Schließanlage</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS</t>
+          <t>Türschloss</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1538,23 +1538,23 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Nein</t>
+          <t>NEIN</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/jXUAAOSwOxJj7LR9/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/hVkAAOSwIJRj7LR9/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/Xg4AAOSw2RJj7LR9/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/OhAAAOSwmbxj7LR9/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/hhEAAOSwnKJj7L2f/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/8x0AAOSwI~xj7L2f/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/5UMAAOSwYw9j7L2f/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/373222887187?t=1727866617000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301873142210?t=1726728552000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.575 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "3.293 verkauft"}</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093210930"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "T\u00dcRSCHLOSS"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31477703"}, "14": {"ITEM": "31593596"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3B1837015AQ, 3B1837015AM, 3B1837015N, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, HECKKLAPPE, mit und inkl +"}, "3": {"EAN": "4052093165773"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31474011"}, "14": {"ITEM": "31700797"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "373222887187", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 8, "market_place_id": "EBAY-DE", "item_id": "301873142210", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1579,23 +1579,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>301357432588</t>
+          <t>391525907148</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW GOLF PLUS 5M 5 1K 6 AJ JETTA 3 1K 4 TOURAN 1T</t>
+          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG HINTEN LINKS FÜR VW POLO 9N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EUR 21,29</t>
+          <t>EUR 21,39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/301357432588?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/391525907148?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ## #</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.737 verkauft</t>
+          <t>2.016 verkauft</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4052093276141</t>
+          <t>4058632645232</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
+          <t>Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Q1-PART</t>
+          <t>Q1-Part</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>31408480</t>
+          <t>31715927</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>31408480</t>
+          <t>31715927</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1721,17 +1721,17 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/2hYAAOSw3Gxj7LJR/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/qQwAAOSwFvBj7LJS/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/dCYAAOSwVe9j7LJR/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/b9QAAOSwJVtj7LJR/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/mLEAAOSw1d5j7LJR/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/VyEAAOSwUN9j7Lsc/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/VnIAAOSw9RZj7Lsc/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ydsAAOSwDc5j7Lsb/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/KpAAAOSw41dj7Lsc/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/m-sAAOSwl4Zj7Lsc/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301357432588?t=1727866371000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907148?t=1727867861000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.737 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.016 verkauft"}</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4052093276141"}, "3": {"OE/OEM Referenznummer(n)": "7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31408480"}, "14": {"ITEM": "31408480"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632645232"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31715927"}, "14": {"ITEM": "31715927"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>{"page": 10, "market_place_id": "EBAY-DE", "item_id": "301357432588", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391525907148", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>371434593545</t>
+          <t>391247775443</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS TÜRSCHLOß VORNE LINKS FÜR VW PASSAT 3C TIGUAN 5N BJ 07-09</t>
+          <t>TÜRSCHLOSS VORNE RECHTS FÜR AUDI A6 4B C5 BJ 2000-2005</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EUR 25,79</t>
+          <t>EUR 21,39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/371434593545?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/391247775443?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>### FÜR ALLE MOTOREN PASSEND ###</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>937 verkauft</t>
+          <t>940 verkauft</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4058612938064</t>
+          <t>4052093196548</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
+          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1835,17 +1835,17 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Q1-Part</t>
+          <t>Q1-PART</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>31733467</t>
+          <t>31474633</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>31733467</t>
+          <t>31474633</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ZENTRALVERRIEGELUNG ZV, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>401837016, 4B1837016B, 4B1837016G, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1898,17 +1898,17 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/0OoAAOSwz5Nj7LTa/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/CeIAAOSwMwlj7LTa/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/epsAAOSw44lj7LTa/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/f8UAAOSwsh1j7LTa/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/HoYAAOSwxylj7LTa/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/bgAAAOSwJ6hj7LTa/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/lC8AAOSw75hj7L1Q/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/nyEAAOSwNmtj7L1Q/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/cT8AAOSw~bZj7L1R/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/2ogAAOSw2rVj7L1Q/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/GD4AAOSwA-5j7L1Q/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/r4oAAOSwj3pj7L1Q/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/371434593545?t=1727866661000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391247775443?t=1727868152000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "937 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "940 verkauft"}</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "ZENTRALVERRIEGELUNG ZV, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4058612938064"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31733467"}, "14": {"ITEM": "31733467"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "401837016, 4B1837016B, 4B1837016G, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093196548"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31474633"}, "14": {"ITEM": "31474633"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "371434593545", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391247775443", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1933,23 +1933,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>301873142210</t>
+          <t>301357432588</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS VORNE LINKS PASSEND FÜR VW MULTIVAN BUS T5 POLO 9N</t>
+          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW GOLF PLUS 5M 5 1K 6 AJ JETTA 3 1K 4 TOURAN 1T</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EUR 17,79</t>
+          <t>EUR 21,29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/301873142210?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/301357432588?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ## #</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.235 verkauft</t>
+          <t>2.774 verkauft</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>4052093165773</t>
+          <t>4052093276141</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
+          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -2012,17 +2012,17 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Q1-Part</t>
+          <t>Q1-PART</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>31474011</t>
+          <t>31408480</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>31700797</t>
+          <t>31408480</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -2034,7 +2034,7 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>3B1837015AQ, 3B1837015AM, 3B1837015N, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, HECKKLAPPE, mit und inkl +</t>
+          <t>7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2075,17 +2075,17 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/hhEAAOSwnKJj7L2f/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/8x0AAOSwI~xj7L2f/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/5UMAAOSwYw9j7L2f/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/2hYAAOSw3Gxj7LJR/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/qQwAAOSwFvBj7LJS/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/dCYAAOSwVe9j7LJR/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/b9QAAOSwJVtj7LJR/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/mLEAAOSw1d5j7LJR/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301873142210?t=1726728552000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301357432588?t=1727866371000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "3.235 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.774 verkauft"}</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3B1837015AQ, 3B1837015AM, 3B1837015N, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, HECKKLAPPE, mit und inkl +"}, "3": {"EAN": "4052093165773"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31474011"}, "14": {"ITEM": "31700797"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4052093276141"}, "3": {"OE/OEM Referenznummer(n)": "7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31408480"}, "14": {"ITEM": "31408480"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>{"page": 8, "market_place_id": "EBAY-DE", "item_id": "301873142210", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 10, "market_place_id": "EBAY-DE", "item_id": "301357432588", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -2110,23 +2110,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>391525907148</t>
+          <t>391626437939</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG HINTEN LINKS FÜR VW POLO 9N</t>
+          <t>2x TÜRSCHLOSS HINTEN LINKS+RECHTS FÜR VW POLO 9N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EUR 21,39</t>
+          <t>EUR 34,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/391525907148?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/391626437939?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.981 verkauft</t>
+          <t>155 verkauft</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -2172,12 +2172,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4058632645232</t>
+          <t>4060584041680</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
+          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>31715927</t>
+          <t>31783267</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>31715927</t>
+          <t>31783267</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -2252,17 +2252,17 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/VyEAAOSwUN9j7Lsc/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/VnIAAOSw9RZj7Lsc/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ydsAAOSwDc5j7Lsb/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/KpAAAOSw41dj7Lsc/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/m-sAAOSwl4Zj7Lsc/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/otAAAOSw0PRj7MFV/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/IQUAAOSwGepj7MFV/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/39gAAOSwTptj7MFV/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/G2wAAOSw7qNj7MFV/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/FMcAAOSwACxj7MFV/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/gjsAAOSwsSxj7MFV/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907148?t=1727867861000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391626437939?t=1727869873000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.981 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "155 verkauft"}</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632645232"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31715927"}, "14": {"ITEM": "31715927"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4060584041680"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31783267"}, "14": {"ITEM": "31783267"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391525907148", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 3, "market_place_id": "EBAY-DE", "item_id": "391626437939", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -2287,23 +2287,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>371570167825</t>
+          <t>391077523166</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG ZV HINTEN RECHTS FÜR VW POLO 9N</t>
+          <t>TÜRSCHLOSS VORNE LINKS FÜR SEAT ALTEA 5P SKODA OCTAVIA 2 VW GOLF 5 6 TOURAN 1T</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EUR 18,99</t>
+          <t>EUR 22,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.ebay.de/itm/371570167825?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+          <t>https://www.ebay.de/itm/391077523166?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.122 verkauft</t>
+          <t>673 verkauft</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>4058632644402</t>
+          <t>4052093399826</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, Rückseite</t>
+          <t>Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Q1-Part</t>
+          <t>Q1-PART</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>31700737</t>
+          <t>31477636</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>31700737</t>
+          <t>31593745</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
+          <t>3D1837015, 3D1837015AB, 3D1837015AP, ATP Autoteile Auto Ersatzteile Pöllath Shop brands4cars, SCHLIEßZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, TÜRSCHLOSS, TÜRSCHLOß, TÜR SCHLOß SCHLOSS, mit und inkl +</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>NEIN</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Schließanlage</t>
+          <t>Schliessanlage</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2423,23 +2423,23 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>NEIN</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/Im8AAOSw5PFj7L2e/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/Ph0AAOSwbptj7L2e/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/OxMAAOSwR2Fj7L2e/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/A1QAAOSwHVJj7L2e/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/hjUAAOSwK2dj7L2e/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/mC0AAOSwVXhj7L2e/s-l500.jpg"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/DFgAAOSwuUBj7K9~/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/rsQAAOSwhyFj7K9~/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/uNgAAOSwDc5j7K9~/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/eUgAAOSwnTVj7K9~/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/2skAAOSw1qhj7K-A/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/9UwAAOSwIh9j7K9~/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/371570167825?t=1727868190000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391077523166?t=1727879351000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.122 verkauft"}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "673 verkauft"}</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632644402"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31700737"}, "14": {"ITEM": "31700737"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3D1837015, 3D1837015AB, 3D1837015AP, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093399826"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31477636"}, "14": {"ITEM": "31593745"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "371570167825", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "391077523166", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
